--- a/faeAuditor/auditData/2021-01-illinois.xlsx
+++ b/faeAuditor/auditData/2021-01-illinois.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongunderson/aitg/faeAuditor/faeAuditor/auditData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D7174FEA-5D9C-B04D-B744-64D3FA6CB5A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12ED6B51-ED83-E644-BFAE-100C1665141F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="2021-01-illinois" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="505">
   <si>
     <t>aces</t>
   </si>
@@ -115,13 +115,7 @@
     <t>ansci</t>
   </si>
   <si>
-    <t>https://www.ansci.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cefe</t>
-  </si>
-  <si>
-    <t>https://www.cefe.illinois.edu/</t>
+    <t>https://www.ansc.illinois.edu/</t>
   </si>
   <si>
     <t>edu</t>
@@ -322,25 +316,7 @@
     <t>research</t>
   </si>
   <si>
-    <t>https://research.illinois.edu/DAR</t>
-  </si>
-  <si>
-    <t>regulatory-compliance-safety</t>
-  </si>
-  <si>
-    <t>https://research.illinois.edu/regulatory-compliance-safety/dar</t>
-  </si>
-  <si>
-    <t>iacuc</t>
-  </si>
-  <si>
-    <t>https://research.illinois.edu/regulatory-compliance-safety/iacuc</t>
-  </si>
-  <si>
-    <t>stf</t>
-  </si>
-  <si>
-    <t>https://research.illinois.edu/stf</t>
+    <t>https://research.illinois.edu</t>
   </si>
   <si>
     <t>researchpark</t>
@@ -349,12 +325,6 @@
     <t>https://researchpark.illinois.edu/</t>
   </si>
   <si>
-    <t>enterpriseworks</t>
-  </si>
-  <si>
-    <t>https://researchpark.illinois.edu/enterpriseworks</t>
-  </si>
-  <si>
     <t>rotc</t>
   </si>
   <si>
@@ -367,12 +337,6 @@
     <t>https://studentaffairs.illinois.edu/</t>
   </si>
   <si>
-    <t>teachingandlearning</t>
-  </si>
-  <si>
-    <t>https://teachingandlearning.illinois.edu/</t>
-  </si>
-  <si>
     <t>topscholars</t>
   </si>
   <si>
@@ -385,16 +349,10 @@
     <t>https://trainingcenter.illinois.edu/</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>https://trainingcenter.illinois.edu/staff</t>
-  </si>
-  <si>
     <t>vcia</t>
   </si>
   <si>
-    <t>https://vcia.illinois.edu/foundationrelations</t>
+    <t>https://vcia.illinois.edu</t>
   </si>
   <si>
     <t>webstore</t>
@@ -403,10 +361,10 @@
     <t>https://webstore.illinois.edu/</t>
   </si>
   <si>
-    <t>ahr</t>
-  </si>
-  <si>
-    <t>https://www.ahr.illinois.edu/</t>
+    <t>humanres</t>
+  </si>
+  <si>
+    <t>https://humanresources.illinois.edu/</t>
   </si>
   <si>
     <t>cap</t>
@@ -421,1173 +379,1062 @@
     <t>https://www.careercenter.illinois.edu/</t>
   </si>
   <si>
+    <t>cfrc</t>
+  </si>
+  <si>
+    <t>https://www.cfrc.illinois.edu/</t>
+  </si>
+  <si>
+    <t>conflictresolution</t>
+  </si>
+  <si>
+    <t>https://www.conflictresolution.illinois.edu/</t>
+  </si>
+  <si>
+    <t>counselingcenter</t>
+  </si>
+  <si>
+    <t>https://www.counselingcenter.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cprd</t>
+  </si>
+  <si>
+    <t>https://www.cprd.illinois.edu/</t>
+  </si>
+  <si>
+    <t>dmi</t>
+  </si>
+  <si>
+    <t>https://www.dmi.illinois.edu/</t>
+  </si>
+  <si>
+    <t>drs</t>
+  </si>
+  <si>
+    <t>https://www.drs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>https://www.extension.illinois.edu/</t>
+  </si>
+  <si>
+    <t>odos</t>
+  </si>
+  <si>
+    <t>https://www.odos.illinois.edu/</t>
+  </si>
+  <si>
+    <t>osfa</t>
+  </si>
+  <si>
+    <t>https://www.osfa.illinois.edu/</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>https://www.parking.illinois.edu/</t>
+  </si>
+  <si>
+    <t>provost</t>
+  </si>
+  <si>
+    <t>https://www.provost.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://www.vcia.illinois.edu/</t>
+  </si>
+  <si>
+    <t>chancellor</t>
+  </si>
+  <si>
+    <t>https://chancellor.illinois.edu</t>
+  </si>
+  <si>
+    <t>ahs</t>
+  </si>
+  <si>
+    <t>chad</t>
+  </si>
+  <si>
+    <t>https://chad.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ihealth</t>
+  </si>
+  <si>
+    <t>https://ihealth.illinois.edu/</t>
+  </si>
+  <si>
+    <t>chezveterancenter</t>
+  </si>
+  <si>
+    <t>http://chezveteranscenter.ahs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://www.ahs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>disability</t>
+  </si>
+  <si>
+    <t>https://www.disability.illinois.edu/</t>
+  </si>
+  <si>
+    <t>architech</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>https://www.arch.illinois.edu/</t>
+  </si>
+  <si>
+    <t>athletics</t>
+  </si>
+  <si>
+    <t>fightingillini</t>
+  </si>
+  <si>
+    <t>https://www.fightingillini.com/</t>
+  </si>
+  <si>
+    <t>beckman</t>
+  </si>
+  <si>
+    <t>https://beckman.illinois.edu/</t>
+  </si>
+  <si>
+    <t>bic</t>
+  </si>
+  <si>
+    <t>http://bic.beckman.illinois.edu/</t>
+  </si>
+  <si>
+    <t>itg</t>
+  </si>
+  <si>
+    <t>https://itg.beckman.illinois.edu/</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>giesbusiness</t>
+  </si>
+  <si>
+    <t>https://giesbusiness.illinois.edu</t>
+  </si>
+  <si>
+    <t>onlinemba</t>
+  </si>
+  <si>
+    <t>https://onlinemba.illinois.edu</t>
+  </si>
+  <si>
+    <t>onlinemsa</t>
+  </si>
+  <si>
+    <t>http://onlinemsa.illinois.edu</t>
+  </si>
+  <si>
+    <t>msfe</t>
+  </si>
+  <si>
+    <t>https://msfe.illinois.edu</t>
+  </si>
+  <si>
+    <t>sbc</t>
+  </si>
+  <si>
+    <t>https://sbc.illinois.edu</t>
+  </si>
+  <si>
+    <t>onlinestudents</t>
+  </si>
+  <si>
+    <t>https://onlinestudents.giesbusiness.illinois.edu</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>acdis</t>
+  </si>
+  <si>
+    <t>https://acdis.illinois.edu/</t>
+  </si>
+  <si>
+    <t>acrc</t>
+  </si>
+  <si>
+    <t>https://acrc.mechse.illinois.edu/</t>
+  </si>
+  <si>
+    <t>isas</t>
+  </si>
+  <si>
+    <t>https://isas.illinois.edu/</t>
+  </si>
+  <si>
+    <t>isgs</t>
+  </si>
+  <si>
+    <t>https://isgs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>nano</t>
+  </si>
+  <si>
+    <t>http://nano.illinois.edu/</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>cdl</t>
+  </si>
+  <si>
+    <t>https://cdl.illinois.edu/</t>
+  </si>
+  <si>
+    <t>csr</t>
+  </si>
+  <si>
+    <t>https://csr.education.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ecap</t>
+  </si>
+  <si>
+    <t>https://ecap.crc.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ecrp</t>
+  </si>
+  <si>
+    <t>https://ecrp.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://education.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>https://education.illinois.edu/ci</t>
+  </si>
+  <si>
+    <t>EDPSY</t>
+  </si>
+  <si>
+    <t>https://education.illinois.edu/EDPSY</t>
+  </si>
+  <si>
+    <t>epol</t>
+  </si>
+  <si>
+    <t>https://education.illinois.edu/epol</t>
+  </si>
+  <si>
+    <t>SPED</t>
+  </si>
+  <si>
+    <t>https://education.illinois.edu/SPED</t>
+  </si>
+  <si>
+    <t>illinoisearlylearning</t>
+  </si>
+  <si>
+    <t>https://illinoisearlylearning.org/</t>
+  </si>
+  <si>
+    <t>istem</t>
+  </si>
+  <si>
+    <t>https://istem.illinois.edu/</t>
+  </si>
+  <si>
+    <t>mste</t>
+  </si>
+  <si>
+    <t>https://mste.illinois.edu/</t>
+  </si>
+  <si>
+    <t>occrl</t>
+  </si>
+  <si>
+    <t>https://occrl.illinois.edu/</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>adsc</t>
+  </si>
+  <si>
+    <t>https://adsc.illinois.edu/</t>
+  </si>
+  <si>
+    <t>aerospace</t>
+  </si>
+  <si>
+    <t>https://aerospace.illinois.edu/</t>
+  </si>
+  <si>
+    <t>appliedresearch</t>
+  </si>
+  <si>
+    <t>https://appliedresearch.illinois.edu/</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>https://bioenergy.illinois.edu/</t>
+  </si>
+  <si>
+    <t>bioengineering</t>
+  </si>
+  <si>
+    <t>https://bioengineering.illinois.edu/</t>
+  </si>
+  <si>
+    <t>biophysics</t>
+  </si>
+  <si>
+    <t>https://biophysics.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cee</t>
+  </si>
+  <si>
+    <t>https://cee.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cpmi</t>
+  </si>
+  <si>
+    <t>https://cpmi.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>https://cs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>https://ease.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ece</t>
+  </si>
+  <si>
+    <t>https://ece.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://engineering.illinois.edu/</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>https://engineering.illinois.edu/online/</t>
+  </si>
+  <si>
+    <t>wie</t>
+  </si>
+  <si>
+    <t>https://engineering.illinois.edu/wie</t>
+  </si>
+  <si>
+    <t>ict</t>
+  </si>
+  <si>
+    <t>https://ict.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ise</t>
+  </si>
+  <si>
+    <t>https://ise.illinois.edu/</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>https://it.engineering.illinois.edu/</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>https://iti.illinois.edu/</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>http://mae.cee.illinois.edu/</t>
+  </si>
+  <si>
+    <t>mntl</t>
+  </si>
+  <si>
+    <t>https://mntl.illinois.edu/</t>
+  </si>
+  <si>
+    <t>mrl</t>
+  </si>
+  <si>
+    <t>https://mrl.illinois.edu/</t>
+  </si>
+  <si>
+    <t>npre</t>
+  </si>
+  <si>
+    <t>https://npre.illinois.edu/</t>
+  </si>
+  <si>
+    <t>chbe</t>
+  </si>
+  <si>
+    <t>https://www.chbe.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cse</t>
+  </si>
+  <si>
+    <t>https://www.cse.illinois.edu/</t>
+  </si>
+  <si>
+    <t>matse</t>
+  </si>
+  <si>
+    <t>https://www.matse.illinois.edu/</t>
+  </si>
+  <si>
+    <t>mechanical</t>
+  </si>
+  <si>
+    <t>https://mechanical.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ncsa</t>
+  </si>
+  <si>
+    <t>https://www.ncsa.illinois.edu/</t>
+  </si>
+  <si>
+    <t>faa</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>https://art.illinois.edu/</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>https://dance.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://faa.illinois.edu/</t>
+  </si>
+  <si>
+    <t>japanhouse</t>
+  </si>
+  <si>
+    <t>https://japanhouse.illinois.edu/</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>https://kam.illinois.edu/</t>
+  </si>
+  <si>
+    <t>bands</t>
+  </si>
+  <si>
+    <t>https://www.bands.illinois.edu/</t>
+  </si>
+  <si>
+    <t>landarch</t>
+  </si>
+  <si>
+    <t>https://www.landarch.illinois.edu/</t>
+  </si>
+  <si>
+    <t>theatre</t>
+  </si>
+  <si>
+    <t>https://theatre.illinois.edu/</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>https://music.illinois.edu/</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>grad</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/</t>
+  </si>
+  <si>
+    <t>academic-support</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/academic-support</t>
+  </si>
+  <si>
+    <t>gradadmin</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/admissions</t>
+  </si>
+  <si>
+    <t>careerdevelopment</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/careerdevelopment</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/diversity</t>
+  </si>
+  <si>
+    <t>fellowships</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/fellowships</t>
+  </si>
+  <si>
+    <t>thesis-dissertation</t>
+  </si>
+  <si>
+    <t>https://www.grad.illinois.edu/thesis-dissertation</t>
+  </si>
+  <si>
+    <t>ischool</t>
+  </si>
+  <si>
+    <t>ccb</t>
+  </si>
+  <si>
+    <t>https://ccb.ischool.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cirss</t>
+  </si>
+  <si>
+    <t>https://cirss.lis.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://ischool.illinois.edu/</t>
+  </si>
+  <si>
+    <t>las</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>https://chemistry.illinois.edu/</t>
+  </si>
+  <si>
+    <t>criticism</t>
+  </si>
+  <si>
+    <t>https://criticism.english.illinois.edu/</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>https://math.illinois.edu/</t>
+  </si>
+  <si>
+    <t>mcb</t>
+  </si>
+  <si>
+    <t>https://mcb.illinois.edu/</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>https://mcb.illinois.edu/departments/biochemistry</t>
+  </si>
+  <si>
+    <t>cdb</t>
+  </si>
+  <si>
+    <t>https://mcb.illinois.edu/departments/cdb</t>
+  </si>
+  <si>
+    <t>microbiology</t>
+  </si>
+  <si>
+    <t>https://mcb.illinois.edu/departments/microbiology</t>
+  </si>
+  <si>
+    <t>mip</t>
+  </si>
+  <si>
+    <t>https://mcb.illinois.edu/departments/mip</t>
+  </si>
+  <si>
+    <t>neuroscience</t>
+  </si>
+  <si>
+    <t>https://neuroscience.illinois.edu/</t>
+  </si>
+  <si>
+    <t>omst</t>
+  </si>
+  <si>
+    <t>http://omst.sib.illinois.edu/</t>
+  </si>
+  <si>
+    <t>peec</t>
+  </si>
+  <si>
+    <t>https://peec.illinois.edu/</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>https://physics.illinois.edu/</t>
+  </si>
+  <si>
+    <t>scs</t>
+  </si>
+  <si>
+    <t>https://scs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>sib</t>
+  </si>
+  <si>
+    <t>https://sib.illinois.edu/</t>
+  </si>
+  <si>
+    <t>afro</t>
+  </si>
+  <si>
+    <t>https://www.afro.illinois.edu/</t>
+  </si>
+  <si>
+    <t>anthro</t>
+  </si>
+  <si>
+    <t>https://www.anthro.illinois.edu/</t>
+  </si>
+  <si>
+    <t>astro</t>
+  </si>
+  <si>
+    <t>https://www.astro.illinois.edu/</t>
+  </si>
+  <si>
+    <t>atlas</t>
+  </si>
+  <si>
+    <t>https://www.atlas.illinois.edu/</t>
+  </si>
+  <si>
+    <t>atmos</t>
+  </si>
+  <si>
+    <t>https://www.atmos.illinois.edu/</t>
+  </si>
+  <si>
+    <t>classics</t>
+  </si>
+  <si>
+    <t>https://www.classics.illinois.edu/</t>
+  </si>
+  <si>
+    <t>clinecenter</t>
+  </si>
+  <si>
+    <t>https://www.clinecenter.illinois.edu/</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>https://www.communication.illinois.edu/</t>
+  </si>
+  <si>
+    <t>complit</t>
+  </si>
+  <si>
+    <t>https://www.complit.illinois.edu/</t>
+  </si>
+  <si>
+    <t>csames</t>
+  </si>
+  <si>
+    <t>https://www.csames.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cws</t>
+  </si>
+  <si>
+    <t>https://www.cws.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ealc</t>
+  </si>
+  <si>
+    <t>https://www.ealc.illinois.edu/</t>
+  </si>
+  <si>
+    <t>eaps</t>
+  </si>
+  <si>
+    <t>https://www.eaps.illinois.edu/</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>https://www.earth.illinois.edu/</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>https://www.economics.illinois.edu/</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>https://www.english.illinois.edu/</t>
+  </si>
+  <si>
+    <t>frit</t>
+  </si>
+  <si>
+    <t>https://www.frit.illinois.edu/</t>
+  </si>
+  <si>
+    <t>geog</t>
+  </si>
+  <si>
+    <t>https://www.geog.illinois.edu/</t>
+  </si>
+  <si>
+    <t>geology</t>
+  </si>
+  <si>
+    <t>https://www.geology.illinois.edu/</t>
+  </si>
+  <si>
+    <t>germanic</t>
+  </si>
+  <si>
+    <t>https://www.germanic.illinois.edu/</t>
+  </si>
+  <si>
+    <t>globalstudies</t>
+  </si>
+  <si>
+    <t>https://www.globalstudies.illinois.edu/</t>
+  </si>
+  <si>
+    <t>gws</t>
+  </si>
+  <si>
+    <t>https://www.gws.illinois.edu/</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>https://www.history.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://www.las.illinois.edu/</t>
+  </si>
+  <si>
+    <t>linguistics</t>
+  </si>
+  <si>
+    <t>https://www.linguistics.illinois.edu/</t>
+  </si>
+  <si>
+    <t>lls</t>
+  </si>
+  <si>
+    <t>https://www.lls.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://classics.illinois.edu/</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>https://www.philosophy.illinois.edu/</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>https://www.pol.illinois.edu/</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>https://www.psychology.illinois.edu/</t>
+  </si>
+  <si>
+    <t>sociology</t>
+  </si>
+  <si>
+    <t>https://www.sociology.illinois.edu/</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>https://www.stat.illinois.edu/</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>lawlib</t>
+  </si>
+  <si>
+    <t>https://law.illinois.edu/library</t>
+  </si>
+  <si>
+    <t>https://www.law.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ler</t>
+  </si>
+  <si>
+    <t>https://www.ler.illinois.edu/</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>archives</t>
+  </si>
+  <si>
+    <t>https://archives.library.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ideals</t>
+  </si>
+  <si>
+    <t>https://www.ideals.illinois.edu/</t>
+  </si>
+  <si>
+    <t>https://www.library.illinois.edu/</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>https://will.illinois.edu/</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>https://will.illinois.edu/community/services</t>
+  </si>
+  <si>
+    <t>https://media.illinois.edu//</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>https://www.med.illinois.edu/</t>
+  </si>
+  <si>
+    <t>medicne</t>
+  </si>
+  <si>
+    <t>psychiatry</t>
+  </si>
+  <si>
+    <t>https://www.med.illinois.edu/departments/psychiatry</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>https://bis.illinois.edu/</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>https://europe.illinois.edu/</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>https://leadership.illinois.edu/</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>https://union.illinois.edu/</t>
+  </si>
+  <si>
+    <t>aspx</t>
+  </si>
+  <si>
+    <t>https://union.illinois.edu/services/meeting_rooms/Default.aspx</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>https://union.illinois.edu/shop/techzone</t>
+  </si>
+  <si>
+    <t>afrst</t>
+  </si>
+  <si>
+    <t>https://www.afrst.illinois.edu/</t>
+  </si>
+  <si>
+    <t>ais</t>
+  </si>
+  <si>
+    <t>https://www.ais.illinois.edu/</t>
+  </si>
+  <si>
+    <t>arboretum</t>
+  </si>
+  <si>
+    <t>http://www.arboretum.illinois.edu/</t>
+  </si>
+  <si>
+    <t>asianam</t>
+  </si>
+  <si>
+    <t>https://www.asianam.illinois.edu/</t>
+  </si>
+  <si>
+    <t>biotech</t>
+  </si>
+  <si>
+    <t>https://www.biotech.illinois.edu/</t>
+  </si>
+  <si>
+    <t>carli</t>
+  </si>
+  <si>
+    <t>https://www.carli.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>https://www.cas.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cgs</t>
+  </si>
+  <si>
+    <t>https://www.cgs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>clacs</t>
+  </si>
+  <si>
+    <t>https://www.clacs.illinois.edu/</t>
+  </si>
+  <si>
+    <t>cote</t>
+  </si>
+  <si>
+    <t>https://www.cote.illinois.edu/</t>
+  </si>
+  <si>
+    <t>dailyillini</t>
+  </si>
+  <si>
+    <t>https://www.dailyillini.com/</t>
+  </si>
+  <si>
+    <t>familyresiliency</t>
+  </si>
+  <si>
+    <t>http://www.familyresiliency.illinois.edu/</t>
+  </si>
+  <si>
+    <t>foellinger</t>
+  </si>
+  <si>
+    <t>https://www.foellinger.illinois.edu/</t>
+  </si>
+  <si>
+    <t>fsi</t>
+  </si>
+  <si>
+    <t>https://www.fsi.illinois.edu/</t>
+  </si>
+  <si>
+    <t>honors</t>
+  </si>
+  <si>
+    <t>https://www.honors.illinois.edu/</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>https://www.housing.illinois.edu/</t>
+  </si>
+  <si>
     <t>certified</t>
   </si>
   <si>
     <t>https://www.certified.housing.illinois.edu/</t>
   </si>
   <si>
-    <t>cfrc</t>
-  </si>
-  <si>
-    <t>https://www.cfrc.illinois.edu/</t>
-  </si>
-  <si>
-    <t>conflictresolution</t>
-  </si>
-  <si>
-    <t>https://www.conflictresolution.illinois.edu/</t>
-  </si>
-  <si>
-    <t>counselingcenter</t>
-  </si>
-  <si>
-    <t>https://www.counselingcenter.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cprd</t>
-  </si>
-  <si>
-    <t>https://www.cprd.illinois.edu/</t>
-  </si>
-  <si>
-    <t>dmi</t>
-  </si>
-  <si>
-    <t>https://www.dmi.illinois.edu/</t>
-  </si>
-  <si>
-    <t>drs</t>
-  </si>
-  <si>
-    <t>https://www.drs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>extension</t>
-  </si>
-  <si>
-    <t>https://www.extension.illinois.edu/</t>
-  </si>
-  <si>
-    <t>odos</t>
-  </si>
-  <si>
-    <t>https://www.odos.illinois.edu/</t>
-  </si>
-  <si>
-    <t>osfa</t>
-  </si>
-  <si>
-    <t>https://www.osfa.illinois.edu/</t>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>https://www.parking.illinois.edu/</t>
-  </si>
-  <si>
-    <t>provost</t>
-  </si>
-  <si>
-    <t>https://www.provost.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://www.vcia.illinois.edu/</t>
-  </si>
-  <si>
-    <t>chancellor</t>
-  </si>
-  <si>
-    <t>https://chancellor.illinois.edu/blog/view/7101</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>https://oiir.illinois.edu/oiir.html</t>
-  </si>
-  <si>
-    <t>ahs</t>
-  </si>
-  <si>
-    <t>chad</t>
-  </si>
-  <si>
-    <t>https://chad.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ihealth</t>
-  </si>
-  <si>
-    <t>https://ihealth.illinois.edu/</t>
-  </si>
-  <si>
-    <t>chezveterancenter</t>
-  </si>
-  <si>
-    <t>https://chezveterancenter.ahs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://www.ahs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>disability</t>
-  </si>
-  <si>
-    <t>https://www.disability.illinois.edu/</t>
-  </si>
-  <si>
-    <t>architech</t>
-  </si>
-  <si>
-    <t>arch</t>
-  </si>
-  <si>
-    <t>https://www.arch.illinois.edu/</t>
-  </si>
-  <si>
-    <t>athletics</t>
-  </si>
-  <si>
-    <t>fightingillini</t>
-  </si>
-  <si>
-    <t>https://www.fightingillini.com/</t>
-  </si>
-  <si>
-    <t>beckman</t>
-  </si>
-  <si>
-    <t>https://beckman.illinois.edu/</t>
-  </si>
-  <si>
-    <t>bic</t>
-  </si>
-  <si>
-    <t>https://bic.beckman.illinois.edu/</t>
-  </si>
-  <si>
-    <t>itg</t>
-  </si>
-  <si>
-    <t>https://itg.beckman.illinois.edu/</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>giesbusiness</t>
-  </si>
-  <si>
-    <t>https://giesbusiness.illinois.edu</t>
-  </si>
-  <si>
-    <t>onlinemba</t>
-  </si>
-  <si>
-    <t>https://onlinemba.illinois.edu</t>
-  </si>
-  <si>
-    <t>onlinemsa</t>
-  </si>
-  <si>
-    <t>http://onlinemsa.illinois.edu</t>
-  </si>
-  <si>
-    <t>msfe</t>
-  </si>
-  <si>
-    <t>https://msfe.illinois.edu</t>
-  </si>
-  <si>
-    <t>sbc</t>
-  </si>
-  <si>
-    <t>https://sbc.illinois.edu</t>
-  </si>
-  <si>
-    <t>onlinestudents</t>
-  </si>
-  <si>
-    <t>https://onlinestudents.giesbusiness.illinois.edu</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>acdis</t>
-  </si>
-  <si>
-    <t>https://acdis.illinois.edu/</t>
-  </si>
-  <si>
-    <t>acrc</t>
-  </si>
-  <si>
-    <t>https://acrc.mechse.illinois.edu/</t>
-  </si>
-  <si>
-    <t>isas</t>
-  </si>
-  <si>
-    <t>https://isas.illinois.edu/</t>
-  </si>
-  <si>
-    <t>isgs</t>
-  </si>
-  <si>
-    <t>https://isgs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>nano</t>
-  </si>
-  <si>
-    <t>https://nano.illinois.edu/</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>cdl</t>
-  </si>
-  <si>
-    <t>https://cdl.illinois.edu/</t>
-  </si>
-  <si>
-    <t>csr</t>
-  </si>
-  <si>
-    <t>https://csr.education.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ecap</t>
-  </si>
-  <si>
-    <t>https://ecap.crc.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ecrp</t>
-  </si>
-  <si>
-    <t>https://ecrp.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/</t>
-  </si>
-  <si>
-    <t>associate-dean-for-research</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/associate-dean-for-research/bureau-of-educational-research</t>
-  </si>
-  <si>
-    <t>ci</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/ci/oc</t>
-  </si>
-  <si>
-    <t>circe</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/circe/</t>
-  </si>
-  <si>
-    <t>EDPSY</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/EDPSY</t>
-  </si>
-  <si>
-    <t>epol</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/epol</t>
-  </si>
-  <si>
-    <t>SPED</t>
-  </si>
-  <si>
-    <t>https://education.illinois.edu/SPED</t>
-  </si>
-  <si>
-    <t>illinoisearlylearning</t>
-  </si>
-  <si>
-    <t>https://illinoisearlylearning.org/</t>
-  </si>
-  <si>
-    <t>istem</t>
-  </si>
-  <si>
-    <t>https://istem.illinois.edu/</t>
-  </si>
-  <si>
-    <t>mste</t>
-  </si>
-  <si>
-    <t>https://mste.illinois.edu/</t>
-  </si>
-  <si>
-    <t>occrl</t>
-  </si>
-  <si>
-    <t>https://occrl.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>https://www.ed.illinois.edu/circe</t>
-  </si>
-  <si>
-    <t>ups</t>
-  </si>
-  <si>
-    <t>https://www.ed.illinois.edu/ups</t>
-  </si>
-  <si>
-    <t>curriculum</t>
-  </si>
-  <si>
-    <t>https://www.education.illinois.edu/ci</t>
-  </si>
-  <si>
-    <t>engineering</t>
-  </si>
-  <si>
-    <t>adsc</t>
-  </si>
-  <si>
-    <t>https://adsc.illinois.edu/</t>
-  </si>
-  <si>
-    <t>aerospace</t>
-  </si>
-  <si>
-    <t>https://aerospace.illinois.edu/</t>
-  </si>
-  <si>
-    <t>appliedresearch</t>
-  </si>
-  <si>
-    <t>https://appliedresearch.illinois.edu/</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
-    <t>https://bioenergy.illinois.edu/</t>
-  </si>
-  <si>
-    <t>bioengineering</t>
-  </si>
-  <si>
-    <t>https://bioengineering.illinois.edu/</t>
-  </si>
-  <si>
-    <t>biomedical</t>
-  </si>
-  <si>
-    <t>https://biomedical.illinois.edu/</t>
-  </si>
-  <si>
-    <t>biophysics</t>
-  </si>
-  <si>
-    <t>https://biophysics.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cee</t>
-  </si>
-  <si>
-    <t>https://cee.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cpmi</t>
-  </si>
-  <si>
-    <t>https://cpmi.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>https://cs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>https://ease.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ece</t>
-  </si>
-  <si>
-    <t>https://ece.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://engineering.illinois.edu/ipeng/</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>https://engineering.illinois.edu/online/</t>
-  </si>
-  <si>
-    <t>wie</t>
-  </si>
-  <si>
-    <t>https://engineering.illinois.edu/wie</t>
-  </si>
-  <si>
-    <t>ict</t>
-  </si>
-  <si>
-    <t>https://ict.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ise</t>
-  </si>
-  <si>
-    <t>https://ise.illinois.edu/</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>https://it.engineering.illinois.edu/</t>
-  </si>
-  <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>https://iti.illinois.edu/</t>
-  </si>
-  <si>
-    <t>mae</t>
-  </si>
-  <si>
-    <t>https://mae.cee.illinois.edu/</t>
-  </si>
-  <si>
-    <t>mntl</t>
-  </si>
-  <si>
-    <t>https://mntl.illinois.edu/</t>
-  </si>
-  <si>
-    <t>mrl</t>
-  </si>
-  <si>
-    <t>https://mrl.illinois.edu/</t>
-  </si>
-  <si>
-    <t>muri</t>
-  </si>
-  <si>
-    <t>https://muri.ece.illinois.edu/</t>
-  </si>
-  <si>
-    <t>npre</t>
-  </si>
-  <si>
-    <t>https://npre.illinois.edu/</t>
-  </si>
-  <si>
-    <t>chbe</t>
-  </si>
-  <si>
-    <t>https://www.chbe.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cse</t>
-  </si>
-  <si>
-    <t>https://www.cse.illinois.edu/</t>
-  </si>
-  <si>
-    <t>csl</t>
-  </si>
-  <si>
-    <t>https://www.csl.illinois.edu/</t>
-  </si>
-  <si>
-    <t>matse</t>
-  </si>
-  <si>
-    <t>https://www.matse.illinois.edu/</t>
-  </si>
-  <si>
-    <t>mechanical</t>
-  </si>
-  <si>
-    <t>https://mechanical.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ncsa</t>
-  </si>
-  <si>
-    <t>https://www.ncsa.illinois.edu/</t>
-  </si>
-  <si>
-    <t>faa</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>https://art.illinois.edu/</t>
-  </si>
-  <si>
-    <t>dance</t>
-  </si>
-  <si>
-    <t>https://dance.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://faa.illinois.edu/</t>
-  </si>
-  <si>
-    <t>japanhouse</t>
-  </si>
-  <si>
-    <t>https://japanhouse.art.illinois.edu/</t>
-  </si>
-  <si>
-    <t>kam</t>
-  </si>
-  <si>
-    <t>https://kam.illinois.edu/</t>
-  </si>
-  <si>
-    <t>bands</t>
-  </si>
-  <si>
-    <t>https://www.bands.illinois.edu/</t>
-  </si>
-  <si>
-    <t>landarch</t>
-  </si>
-  <si>
-    <t>https://www.landarch.illinois.edu/</t>
-  </si>
-  <si>
-    <t>theatre</t>
-  </si>
-  <si>
-    <t>https://www.theatre.illinois.edu/</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>https://music.illinois.edu/</t>
-  </si>
-  <si>
-    <t>graduate</t>
-  </si>
-  <si>
-    <t>grad</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/</t>
-  </si>
-  <si>
-    <t>academic-support</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/academic-support</t>
-  </si>
-  <si>
-    <t>gradadmin</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/admissions</t>
-  </si>
-  <si>
-    <t>careerdevelopment</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/careerdevelopment</t>
-  </si>
-  <si>
-    <t>diversity</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/diversity</t>
-  </si>
-  <si>
-    <t>fellowships</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/fellowships</t>
-  </si>
-  <si>
-    <t>thesis-dissertation</t>
-  </si>
-  <si>
-    <t>https://www.grad.illinois.edu/thesis-dissertation</t>
-  </si>
-  <si>
-    <t>ischool</t>
-  </si>
-  <si>
-    <t>ccb</t>
-  </si>
-  <si>
-    <t>https://ccb.ischool.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cirss</t>
-  </si>
-  <si>
-    <t>https://cirss.lis.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://ischool.illinois.edu/</t>
-  </si>
-  <si>
-    <t>las</t>
-  </si>
-  <si>
-    <t>chemistry</t>
-  </si>
-  <si>
-    <t>https://chemistry.illinois.edu/</t>
-  </si>
-  <si>
-    <t>criticism</t>
-  </si>
-  <si>
-    <t>https://criticism.english.illinois.edu/</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
-    <t>https://math.illinois.edu/</t>
-  </si>
-  <si>
-    <t>mcb</t>
-  </si>
-  <si>
-    <t>https://mcb.illinois.edu/</t>
-  </si>
-  <si>
-    <t>departments</t>
-  </si>
-  <si>
-    <t>https://mcb.illinois.edu/departments/biochemistry</t>
-  </si>
-  <si>
-    <t>cdb</t>
-  </si>
-  <si>
-    <t>https://mcb.illinois.edu/departments/cdb</t>
-  </si>
-  <si>
-    <t>microbiology</t>
-  </si>
-  <si>
-    <t>https://mcb.illinois.edu/departments/microbiology</t>
-  </si>
-  <si>
-    <t>mip</t>
-  </si>
-  <si>
-    <t>https://mcb.illinois.edu/departments/mip</t>
-  </si>
-  <si>
-    <t>neuroscience</t>
-  </si>
-  <si>
-    <t>https://neuroscience.illinois.edu/</t>
-  </si>
-  <si>
-    <t>omst</t>
-  </si>
-  <si>
-    <t>https://omst.sib.illinois.edu/</t>
-  </si>
-  <si>
-    <t>peec</t>
-  </si>
-  <si>
-    <t>https://peec.illinois.edu/</t>
-  </si>
-  <si>
-    <t>physics</t>
-  </si>
-  <si>
-    <t>https://physics.illinois.edu/</t>
-  </si>
-  <si>
-    <t>scs</t>
-  </si>
-  <si>
-    <t>https://scs.illinois.edu/epr/index.php</t>
-  </si>
-  <si>
-    <t>sib</t>
-  </si>
-  <si>
-    <t>https://sib.illinois.edu/</t>
-  </si>
-  <si>
-    <t>afro</t>
-  </si>
-  <si>
-    <t>https://www.afro.illinois.edu/</t>
-  </si>
-  <si>
-    <t>anthro</t>
-  </si>
-  <si>
-    <t>https://www.anthro.illinois.edu/</t>
-  </si>
-  <si>
-    <t>astro</t>
-  </si>
-  <si>
-    <t>https://www.astro.illinois.edu/</t>
-  </si>
-  <si>
-    <t>atlas</t>
-  </si>
-  <si>
-    <t>https://www.atlas.illinois.edu/</t>
-  </si>
-  <si>
-    <t>atmos</t>
-  </si>
-  <si>
-    <t>https://www.atmos.illinois.edu/</t>
-  </si>
-  <si>
-    <t>classics</t>
-  </si>
-  <si>
-    <t>https://www.classics.illinois.edu/</t>
-  </si>
-  <si>
-    <t>clinecenter</t>
-  </si>
-  <si>
-    <t>https://www.clinecenter.illinois.edu/</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>https://www.communication.illinois.edu/</t>
-  </si>
-  <si>
-    <t>complit</t>
-  </si>
-  <si>
-    <t>https://www.complit.illinois.edu/</t>
-  </si>
-  <si>
-    <t>csames</t>
-  </si>
-  <si>
-    <t>https://www.csames.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cws</t>
-  </si>
-  <si>
-    <t>https://www.cws.illinois.edu/</t>
-  </si>
-  <si>
-    <t>workshop</t>
-  </si>
-  <si>
-    <t>https://www.cws.illinois.edu/workshop/writers</t>
-  </si>
-  <si>
-    <t>ealc</t>
-  </si>
-  <si>
-    <t>https://www.ealc.illinois.edu/</t>
-  </si>
-  <si>
-    <t>eaps</t>
-  </si>
-  <si>
-    <t>https://www.eaps.illinois.edu/</t>
-  </si>
-  <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>https://www.earth.illinois.edu/</t>
-  </si>
-  <si>
-    <t>economics</t>
-  </si>
-  <si>
-    <t>https://www.economics.illinois.edu/</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>https://www.english.illinois.edu/</t>
-  </si>
-  <si>
-    <t>frit</t>
-  </si>
-  <si>
-    <t>https://www.frit.illinois.edu/</t>
-  </si>
-  <si>
-    <t>geog</t>
-  </si>
-  <si>
-    <t>https://www.geog.illinois.edu/</t>
-  </si>
-  <si>
-    <t>geology</t>
-  </si>
-  <si>
-    <t>https://www.geology.illinois.edu/</t>
-  </si>
-  <si>
-    <t>germanic</t>
-  </si>
-  <si>
-    <t>https://www.germanic.illinois.edu/</t>
-  </si>
-  <si>
-    <t>globalstudies</t>
-  </si>
-  <si>
-    <t>https://www.globalstudies.illinois.edu/</t>
-  </si>
-  <si>
-    <t>gws</t>
-  </si>
-  <si>
-    <t>https://www.gws.illinois.edu/</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>https://www.history.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://www.las.illinois.edu/</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>https://www.life.illinois.edu/</t>
-  </si>
-  <si>
-    <t>animalbiology</t>
-  </si>
-  <si>
-    <t>https://www.life.illinois.edu/animalbiology</t>
-  </si>
-  <si>
-    <t>entomology</t>
-  </si>
-  <si>
-    <t>https://www.life.illinois.edu/entomology</t>
-  </si>
-  <si>
-    <t>physiology</t>
-  </si>
-  <si>
-    <t>https://www.life.illinois.edu/physiology</t>
-  </si>
-  <si>
-    <t>plantbio</t>
-  </si>
-  <si>
-    <t>https://www.life.illinois.edu/plantbio</t>
-  </si>
-  <si>
-    <t>repro</t>
-  </si>
-  <si>
-    <t>https://www.life.illinois.edu/repro</t>
-  </si>
-  <si>
-    <t>linguistics</t>
-  </si>
-  <si>
-    <t>https://www.linguistics.illinois.edu/</t>
-  </si>
-  <si>
-    <t>lls</t>
-  </si>
-  <si>
-    <t>https://www.lls.illinois.edu/</t>
-  </si>
-  <si>
-    <t>moderngreek</t>
-  </si>
-  <si>
-    <t>https://www.moderngreek.illinois.edu/</t>
-  </si>
-  <si>
-    <t>philosophy</t>
-  </si>
-  <si>
-    <t>https://www.philosophy.illinois.edu/</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>https://www.pol.illinois.edu/</t>
-  </si>
-  <si>
-    <t>psychology</t>
-  </si>
-  <si>
-    <t>https://www.psychology.illinois.edu/</t>
-  </si>
-  <si>
-    <t>sociology</t>
-  </si>
-  <si>
-    <t>https://www.sociology.illinois.edu/</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>https://www.stat.illinois.edu/</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>lawlib</t>
-  </si>
-  <si>
-    <t>https://law.illinois.edu/library</t>
-  </si>
-  <si>
-    <t>https://www.law.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ler</t>
-  </si>
-  <si>
-    <t>https://www.ler.illinois.edu/</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>archives</t>
-  </si>
-  <si>
-    <t>https://archives.library.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ideals</t>
-  </si>
-  <si>
-    <t>https://www.ideals.illinois.edu/</t>
-  </si>
-  <si>
-    <t>https://www.library.illinois.edu/</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>https://will.illinois.edu/</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>https://will.illinois.edu/community/services</t>
-  </si>
-  <si>
-    <t>https://media.illinois.edu//</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>med</t>
-  </si>
-  <si>
-    <t>https://www.med.illinois.edu/</t>
-  </si>
-  <si>
-    <t>medicne</t>
-  </si>
-  <si>
-    <t>psychiatry</t>
-  </si>
-  <si>
-    <t>https://www.med.illinois.edu/departments/psychiatry</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>bis</t>
-  </si>
-  <si>
-    <t>https://bis.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ccaas</t>
-  </si>
-  <si>
-    <t>https://ccaas.illinois.edu/</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>https://europe.illinois.edu/</t>
-  </si>
-  <si>
-    <t>leadership</t>
-  </si>
-  <si>
-    <t>https://leadership.illinois.edu/</t>
-  </si>
-  <si>
-    <t>union</t>
-  </si>
-  <si>
-    <t>https://union.illinois.edu/</t>
-  </si>
-  <si>
-    <t>aspx</t>
-  </si>
-  <si>
-    <t>https://union.illinois.edu/services/meeting_rooms/Default.aspx</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>https://union.illinois.edu/shop/techzone</t>
-  </si>
-  <si>
-    <t>afrst</t>
-  </si>
-  <si>
-    <t>https://www.afrst.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ais</t>
-  </si>
-  <si>
-    <t>https://www.ais.illinois.edu/</t>
-  </si>
-  <si>
-    <t>arboretum</t>
-  </si>
-  <si>
-    <t>https://www.arboretum.illinois.edu/</t>
-  </si>
-  <si>
-    <t>asianam</t>
-  </si>
-  <si>
-    <t>https://www.asianam.illinois.edu/</t>
-  </si>
-  <si>
-    <t>aviation</t>
-  </si>
-  <si>
-    <t>https://www.aviation.illinois.edu/</t>
-  </si>
-  <si>
-    <t>biotech</t>
-  </si>
-  <si>
-    <t>https://www.biotech.illinois.edu/</t>
-  </si>
-  <si>
-    <t>carli</t>
-  </si>
-  <si>
-    <t>https://www.carli.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>https://www.cas.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cgs</t>
-  </si>
-  <si>
-    <t>https://www.cgs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>clacs</t>
-  </si>
-  <si>
-    <t>https://www.clacs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>cote</t>
-  </si>
-  <si>
-    <t>https://www.cote.illinois.edu/</t>
-  </si>
-  <si>
-    <t>dailyillini</t>
-  </si>
-  <si>
-    <t>https://www.dailyillini.com/</t>
-  </si>
-  <si>
-    <t>familyresiliency</t>
-  </si>
-  <si>
-    <t>https://www.familyresiliency.illinois.edu/</t>
-  </si>
-  <si>
-    <t>foellinger</t>
-  </si>
-  <si>
-    <t>https://www.foellinger.illinois.edu/</t>
-  </si>
-  <si>
-    <t>fsi</t>
-  </si>
-  <si>
-    <t>https://www.fsi.illinois.edu/</t>
-  </si>
-  <si>
-    <t>honors</t>
-  </si>
-  <si>
-    <t>https://www.honors.illinois.edu/</t>
-  </si>
-  <si>
-    <t>housing</t>
-  </si>
-  <si>
-    <t>https://www.housing.illinois.edu/</t>
-  </si>
-  <si>
     <t>iei</t>
   </si>
   <si>
@@ -1600,12 +1447,6 @@
     <t>https://www.igb.illinois.edu/</t>
   </si>
   <si>
-    <t>ilint</t>
-  </si>
-  <si>
-    <t>https://www.ilint.illinois.edu/oic</t>
-  </si>
-  <si>
     <t>illinicenter</t>
   </si>
   <si>
@@ -1615,31 +1456,19 @@
     <t>illinimedia</t>
   </si>
   <si>
-    <t>https://www.illinimedia.com/</t>
+    <t>http://www.illinimedia.com/</t>
   </si>
   <si>
     <t>inhs</t>
   </si>
   <si>
-    <t>https://www.inhs.illinois.edu/</t>
-  </si>
-  <si>
-    <t>ips</t>
-  </si>
-  <si>
-    <t>https://www.ips.illinois.edu/wggp</t>
-  </si>
-  <si>
-    <t>iss</t>
-  </si>
-  <si>
-    <t>https://www.iss.illinois.edu/</t>
+    <t>https://inhs.illinois.edu/</t>
   </si>
   <si>
     <t>istc</t>
   </si>
   <si>
-    <t>https://www.istc.illinois.edu/</t>
+    <t>https://istc.illinois.edu/</t>
   </si>
   <si>
     <t>jewishculture</t>
@@ -1706,24 +1535,6 @@
   </si>
   <si>
     <t>https://vetmed.illinois.edu/</t>
-  </si>
-  <si>
-    <t>CARE</t>
-  </si>
-  <si>
-    <t>https://vetmed.illinois.edu/CARE</t>
-  </si>
-  <si>
-    <t>pathobiology</t>
-  </si>
-  <si>
-    <t>https://vetmed.illinois.edu/research/departments/pathobiology/</t>
-  </si>
-  <si>
-    <t>wmc</t>
-  </si>
-  <si>
-    <t>https://vetmed.illinois.edu/wmc</t>
   </si>
 </sst>
 </file>
@@ -2564,14 +2375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C279"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2773,18 +2581,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -2795,7 +2603,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -2806,7 +2614,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -2817,7 +2625,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -2828,7 +2636,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -2839,7 +2647,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -2850,7 +2658,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -2861,7 +2669,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -2872,7 +2680,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -2883,7 +2691,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -2894,7 +2702,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -2905,7 +2713,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -2916,7 +2724,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -2927,7 +2735,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -2938,7 +2746,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -2949,7 +2757,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -2960,7 +2768,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -2971,7 +2779,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -2982,7 +2790,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -2993,7 +2801,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -3004,7 +2812,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -3015,7 +2823,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -3026,7 +2834,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -3037,7 +2845,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -3048,7 +2856,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -3059,7 +2867,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
@@ -3070,7 +2878,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
@@ -3081,7 +2889,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -3092,7 +2900,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
@@ -3103,7 +2911,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
@@ -3114,7 +2922,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
@@ -3125,7 +2933,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -3136,7 +2944,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -3147,7 +2955,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -3158,7 +2966,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
@@ -3169,7 +2977,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -3180,7 +2988,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
@@ -3191,7 +2999,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
@@ -3202,7 +3010,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
@@ -3213,7 +3021,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
@@ -3224,7 +3032,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
@@ -3235,7 +3043,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
@@ -3246,7 +3054,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
@@ -3257,7 +3065,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
@@ -3268,7 +3076,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
@@ -3279,7 +3087,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
@@ -3290,7 +3098,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
@@ -3301,7 +3109,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
@@ -3312,7 +3120,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
@@ -3323,7 +3131,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
@@ -3334,7 +3142,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
@@ -3345,29 +3153,26 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
         <v>141</v>
-      </c>
-      <c r="C71" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>145</v>
@@ -3378,7 +3183,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
         <v>147</v>
@@ -3389,7 +3194,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
         <v>149</v>
@@ -3400,29 +3205,29 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
         <v>151</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" t="s">
         <v>153</v>
-      </c>
-      <c r="C77" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>155</v>
@@ -3433,216 +3238,219 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C98" t="s">
         <v>199</v>
@@ -3650,7 +3458,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
         <v>200</v>
@@ -3661,7 +3469,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
         <v>202</v>
@@ -3672,7 +3480,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
         <v>204</v>
@@ -3683,7 +3491,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
         <v>206</v>
@@ -3694,175 +3502,175 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
         <v>208</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>209</v>
-      </c>
-      <c r="C103" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
         <v>211</v>
-      </c>
-      <c r="C104" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
         <v>213</v>
-      </c>
-      <c r="C105" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
         <v>215</v>
-      </c>
-      <c r="C106" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C118" t="s">
         <v>239</v>
@@ -3870,7 +3678,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B119" t="s">
         <v>240</v>
@@ -3881,7 +3689,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
         <v>242</v>
@@ -3892,142 +3700,142 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" t="s">
         <v>244</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>245</v>
-      </c>
-      <c r="C121" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
         <v>247</v>
-      </c>
-      <c r="C122" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
         <v>249</v>
-      </c>
-      <c r="C123" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
         <v>251</v>
-      </c>
-      <c r="C124" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
         <v>253</v>
-      </c>
-      <c r="C125" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" t="s">
         <v>255</v>
-      </c>
-      <c r="C126" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
         <v>257</v>
-      </c>
-      <c r="C127" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" t="s">
         <v>259</v>
-      </c>
-      <c r="C128" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s">
         <v>261</v>
-      </c>
-      <c r="C129" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="s">
         <v>263</v>
-      </c>
-      <c r="C130" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="s">
         <v>265</v>
-      </c>
-      <c r="C131" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
         <v>267</v>
-      </c>
-      <c r="C132" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B133" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
         <v>269</v>
@@ -4035,32 +3843,32 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
         <v>275</v>
@@ -4068,7 +3876,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
         <v>276</v>
@@ -4079,7 +3887,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
         <v>278</v>
@@ -4090,7 +3898,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B139" t="s">
         <v>280</v>
@@ -4101,7 +3909,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B140" t="s">
         <v>282</v>
@@ -4112,7 +3920,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B141" t="s">
         <v>284</v>
@@ -4123,7 +3931,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B142" t="s">
         <v>286</v>
@@ -4134,109 +3942,109 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C150" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C151" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
         <v>308</v>
@@ -4244,161 +4052,161 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C157" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B160" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C160" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B161" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C161" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B162" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C162" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B163" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C163" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B164" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C164" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C166" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B167" t="s">
         <v>338</v>
@@ -4409,7 +4217,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B168" t="s">
         <v>340</v>
@@ -4420,18 +4228,18 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C169" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B170" t="s">
         <v>344</v>
@@ -4442,7 +4250,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B171" t="s">
         <v>346</v>
@@ -4453,7 +4261,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B172" t="s">
         <v>348</v>
@@ -4464,7 +4272,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B173" t="s">
         <v>350</v>
@@ -4475,7 +4283,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B174" t="s">
         <v>352</v>
@@ -4486,7 +4294,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B175" t="s">
         <v>354</v>
@@ -4497,7 +4305,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B176" t="s">
         <v>356</v>
@@ -4508,7 +4316,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B177" t="s">
         <v>358</v>
@@ -4519,7 +4327,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B178" t="s">
         <v>360</v>
@@ -4530,7 +4338,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B179" t="s">
         <v>362</v>
@@ -4541,7 +4349,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B180" t="s">
         <v>364</v>
@@ -4552,7 +4360,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B181" t="s">
         <v>366</v>
@@ -4563,7 +4371,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B182" t="s">
         <v>368</v>
@@ -4574,7 +4382,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B183" t="s">
         <v>370</v>
@@ -4585,7 +4393,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B184" t="s">
         <v>372</v>
@@ -4596,7 +4404,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B185" t="s">
         <v>374</v>
@@ -4607,7 +4415,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
         <v>376</v>
@@ -4618,7 +4426,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B187" t="s">
         <v>378</v>
@@ -4629,7 +4437,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B188" t="s">
         <v>380</v>
@@ -4640,7 +4448,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B189" t="s">
         <v>382</v>
@@ -4651,208 +4459,208 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B190" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" t="s">
         <v>384</v>
-      </c>
-      <c r="C190" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B191" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" t="s">
         <v>386</v>
-      </c>
-      <c r="C191" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B192" t="s">
+        <v>387</v>
+      </c>
+      <c r="C192" t="s">
         <v>388</v>
-      </c>
-      <c r="C192" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B193" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="C193" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C194" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B195" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C195" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B196" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C196" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B197" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C197" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C198" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="B199" t="s">
+        <v>401</v>
+      </c>
+      <c r="C199" t="s">
         <v>402</v>
-      </c>
-      <c r="C199" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C200" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C201" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="B202" t="s">
+        <v>407</v>
+      </c>
+      <c r="C202" t="s">
         <v>408</v>
-      </c>
-      <c r="C202" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
+        <v>409</v>
+      </c>
+      <c r="C203" t="s">
         <v>410</v>
-      </c>
-      <c r="C203" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="B204" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C204" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="B205" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" t="s">
         <v>414</v>
-      </c>
-      <c r="C205" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" t="s">
         <v>416</v>
-      </c>
-      <c r="C206" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="B207" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C207" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="B208" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="C208" t="s">
         <v>420</v>
@@ -4860,271 +4668,271 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="B209" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C209" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B210" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C210" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B211" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C211" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B212" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C212" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C213" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C214" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C215" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B216" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C216" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B217" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C217" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B218" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C218" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B219" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C220" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B221" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C221" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="B222" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C222" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B223" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B224" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C224" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="B225" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C225" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B226" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C226" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B227" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C227" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B228" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C228" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B229" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C229" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B230" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C230" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B231" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C231" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="B232" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C232" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="B233" t="s">
         <v>471</v>
@@ -5135,128 +4943,128 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>424</v>
+      </c>
+      <c r="B234" t="s">
         <v>473</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>474</v>
-      </c>
-      <c r="C234" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B235" t="s">
+        <v>475</v>
+      </c>
+      <c r="C235" t="s">
         <v>476</v>
-      </c>
-      <c r="C235" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B236" t="s">
+        <v>477</v>
+      </c>
+      <c r="C236" t="s">
         <v>478</v>
-      </c>
-      <c r="C236" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B237" t="s">
+        <v>479</v>
+      </c>
+      <c r="C237" t="s">
         <v>480</v>
-      </c>
-      <c r="C237" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B238" t="s">
+        <v>481</v>
+      </c>
+      <c r="C238" t="s">
         <v>482</v>
-      </c>
-      <c r="C238" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B239" t="s">
+        <v>483</v>
+      </c>
+      <c r="C239" t="s">
         <v>484</v>
-      </c>
-      <c r="C239" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B240" t="s">
+        <v>485</v>
+      </c>
+      <c r="C240" t="s">
         <v>486</v>
-      </c>
-      <c r="C240" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
+        <v>487</v>
+      </c>
+      <c r="C241" t="s">
         <v>488</v>
-      </c>
-      <c r="C241" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B242" t="s">
+        <v>489</v>
+      </c>
+      <c r="C242" t="s">
         <v>490</v>
-      </c>
-      <c r="C242" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
+        <v>491</v>
+      </c>
+      <c r="C243" t="s">
         <v>492</v>
-      </c>
-      <c r="C243" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B244" t="s">
+        <v>493</v>
+      </c>
+      <c r="C244" t="s">
         <v>494</v>
-      </c>
-      <c r="C244" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s">
         <v>496</v>
@@ -5267,376 +5075,35 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C246" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="B247" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C247" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B248" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C248" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>473</v>
-      </c>
-      <c r="B249" t="s">
         <v>504</v>
-      </c>
-      <c r="C249" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>473</v>
-      </c>
-      <c r="B250" t="s">
-        <v>506</v>
-      </c>
-      <c r="C250" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>473</v>
-      </c>
-      <c r="B251" t="s">
-        <v>508</v>
-      </c>
-      <c r="C251" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>473</v>
-      </c>
-      <c r="B252" t="s">
-        <v>510</v>
-      </c>
-      <c r="C252" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>473</v>
-      </c>
-      <c r="B253" t="s">
-        <v>512</v>
-      </c>
-      <c r="C253" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>473</v>
-      </c>
-      <c r="B254" t="s">
-        <v>514</v>
-      </c>
-      <c r="C254" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>473</v>
-      </c>
-      <c r="B255" t="s">
-        <v>516</v>
-      </c>
-      <c r="C255" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>473</v>
-      </c>
-      <c r="B256" t="s">
-        <v>518</v>
-      </c>
-      <c r="C256" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>473</v>
-      </c>
-      <c r="B257" t="s">
-        <v>520</v>
-      </c>
-      <c r="C257" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>473</v>
-      </c>
-      <c r="B258" t="s">
-        <v>522</v>
-      </c>
-      <c r="C258" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>473</v>
-      </c>
-      <c r="B259" t="s">
-        <v>524</v>
-      </c>
-      <c r="C259" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>473</v>
-      </c>
-      <c r="B260" t="s">
-        <v>526</v>
-      </c>
-      <c r="C260" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>473</v>
-      </c>
-      <c r="B261" t="s">
-        <v>528</v>
-      </c>
-      <c r="C261" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>473</v>
-      </c>
-      <c r="B262" t="s">
-        <v>530</v>
-      </c>
-      <c r="C262" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>473</v>
-      </c>
-      <c r="B263" t="s">
-        <v>532</v>
-      </c>
-      <c r="C263" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>473</v>
-      </c>
-      <c r="B264" t="s">
-        <v>534</v>
-      </c>
-      <c r="C264" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>473</v>
-      </c>
-      <c r="B265" t="s">
-        <v>536</v>
-      </c>
-      <c r="C265" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>473</v>
-      </c>
-      <c r="B266" t="s">
-        <v>538</v>
-      </c>
-      <c r="C266" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>473</v>
-      </c>
-      <c r="B267" t="s">
-        <v>540</v>
-      </c>
-      <c r="C267" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>473</v>
-      </c>
-      <c r="B268" t="s">
-        <v>542</v>
-      </c>
-      <c r="C268" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>473</v>
-      </c>
-      <c r="B269" t="s">
-        <v>544</v>
-      </c>
-      <c r="C269" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>473</v>
-      </c>
-      <c r="B270" t="s">
-        <v>546</v>
-      </c>
-      <c r="C270" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>473</v>
-      </c>
-      <c r="B271" t="s">
-        <v>548</v>
-      </c>
-      <c r="C271" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>473</v>
-      </c>
-      <c r="B272" t="s">
-        <v>550</v>
-      </c>
-      <c r="C272" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>552</v>
-      </c>
-      <c r="B273" t="s">
-        <v>553</v>
-      </c>
-      <c r="C273" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>555</v>
-      </c>
-      <c r="B274" t="s">
-        <v>556</v>
-      </c>
-      <c r="C274" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>555</v>
-      </c>
-      <c r="B275" t="s">
-        <v>558</v>
-      </c>
-      <c r="C275" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>560</v>
-      </c>
-      <c r="B276" t="s">
-        <v>560</v>
-      </c>
-      <c r="C276" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>560</v>
-      </c>
-      <c r="B277" t="s">
-        <v>562</v>
-      </c>
-      <c r="C277" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>560</v>
-      </c>
-      <c r="B278" t="s">
-        <v>564</v>
-      </c>
-      <c r="C278" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>560</v>
-      </c>
-      <c r="B279" t="s">
-        <v>566</v>
-      </c>
-      <c r="C279" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
